--- a/outputs-HGR-r202-archive/g__Schaedlerella_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Schaedlerella_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,59 +666,59 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_11.fasta</t>
+          <t>label_GCF_000218385_15.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7059262551270454</v>
+        <v>0.02999505426824667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2940737448729546</v>
+        <v>0.9700049457317533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7059262551270454</v>
+        <v>0.9700049457317533</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_3.fasta</t>
+          <t>label_GCF_000218385_16.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9902385556263809</v>
+        <v>0.08604618716003243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009761444373619135</v>
+        <v>0.9139538128399676</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9902385556263809</v>
+        <v>0.9139538128399676</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_5.fasta</t>
+          <t>label_GCF_000218385_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9894090391379237</v>
+        <v>0.9499345560027868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01059096086207633</v>
+        <v>0.05006544399721322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9894090391379237</v>
+        <v>0.9499345560027868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,80 +729,80 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_15.fasta</t>
+          <t>label_GCF_000218385_10.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02999505426824667</v>
+        <v>0.6956352826428993</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9700049457317533</v>
+        <v>0.3043647173571007</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9700049457317533</v>
+        <v>0.6956352826428993</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s__Schaedlerella sp900066545</t>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_16.fasta</t>
+          <t>label_GCF_000218385_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08604618716003243</v>
+        <v>0.9100624737873876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9139538128399676</v>
+        <v>0.08993752621261239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9139538128399676</v>
+        <v>0.9100624737873876</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>s__Schaedlerella sp900066545</t>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_0.fasta</t>
+          <t>label_GCF_000218385_13.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9499345560027868</v>
+        <v>0.002707184285098529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05006544399721322</v>
+        <v>0.9972928157149015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9499345560027868</v>
+        <v>0.9972928157149015</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_10.fasta</t>
+          <t>label_GCF_000218385_2.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6956352826428993</v>
+        <v>0.9868005667921745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3043647173571007</v>
+        <v>0.01319943320782542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6956352826428993</v>
+        <v>0.9868005667921745</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_8.fasta</t>
+          <t>label_GCF_000218385_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9100624737873876</v>
+        <v>0.6336717436142989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08993752621261239</v>
+        <v>0.3663282563857011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9100624737873876</v>
+        <v>0.6336717436142989</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,80 +834,80 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_13.fasta</t>
+          <t>label_GCF_000218385_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002707184285098529</v>
+        <v>0.9103740842549047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9972928157149015</v>
+        <v>0.08962591574509529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9972928157149015</v>
+        <v>0.9103740842549047</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>s__Schaedlerella sp900066545</t>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_2.fasta</t>
+          <t>label_GCF_000218385_12.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9868005667921745</v>
+        <v>0.1553478555733205</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01319943320782542</v>
+        <v>0.8446521444266795</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9868005667921745</v>
+        <v>0.8446521444266795</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_4.fasta</t>
+          <t>label_GCF_000218385_14.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6336717436142989</v>
+        <v>0.03282349070995616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3663282563857011</v>
+        <v>0.9671765092900438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6336717436142989</v>
+        <v>0.9671765092900438</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_1.fasta</t>
+          <t>label_GCF_000218385_6.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9103740842549047</v>
+        <v>0.8995466210449344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08962591574509529</v>
+        <v>0.1004533789550656</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9103740842549047</v>
+        <v>0.8995466210449344</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,103 +918,40 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_12.fasta</t>
+          <t>label_GCF_000218385_7.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1553478555733205</v>
+        <v>0.7300941992650342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8446521444266795</v>
+        <v>0.2699058007349658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8446521444266795</v>
+        <v>0.7300941992650342</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>s__Schaedlerella sp900066545</t>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000218385_14.fasta</t>
+          <t>label_GCF_000218385_9.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03282349070995616</v>
+        <v>0.1843673346903646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9671765092900438</v>
+        <v>0.8156326653096354</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9671765092900438</v>
+        <v>0.8156326653096354</v>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000218385_6.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8995466210449344</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1004533789550656</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8995466210449344</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000218385_7.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7300941992650342</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2699058007349658</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7300941992650342</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000218385_9.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.1843673346903646</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8156326653096354</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8156326653096354</v>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>s__Schaedlerella sp900066545</t>
         </is>
@@ -1031,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,17 +1195,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_0.fasta</t>
+          <t>label_20287_6_33_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005407151113940523</v>
+        <v>0.009185391779113261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9945928488860595</v>
+        <v>0.9908146082208867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9945928488860595</v>
+        <v>0.9908146082208867</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1279,17 +1216,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_22.fasta</t>
+          <t>label_20287_6_33_15.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0287714734726926</v>
+        <v>0.02369738591309833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9712285265273074</v>
+        <v>0.9763026140869017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9712285265273074</v>
+        <v>0.9763026140869017</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1300,17 +1237,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_28.fasta</t>
+          <t>label_20287_6_33_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01644832631262183</v>
+        <v>0.00858581998329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9835516736873782</v>
+        <v>0.99141418001671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9835516736873782</v>
+        <v>0.99141418001671</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1321,38 +1258,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_31.fasta</t>
+          <t>label_20287_6_33_19.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9316822176799215</v>
+        <v>0.0101410133260792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06831778232007849</v>
+        <v>0.9898589866739208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9316822176799215</v>
+        <v>0.9898589866739208</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_36.fasta</t>
+          <t>label_20287_6_33_25.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0895866694549865</v>
+        <v>0.006757040458707064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9104133305450135</v>
+        <v>0.9932429595412929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9104133305450135</v>
+        <v>0.9932429595412929</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1363,17 +1300,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_38.fasta</t>
+          <t>label_20287_6_33_26.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07188018316237266</v>
+        <v>0.01248984982704249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9281198168376273</v>
+        <v>0.9875101501729575</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9281198168376273</v>
+        <v>0.9875101501729575</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1384,17 +1321,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_43.fasta</t>
+          <t>label_20287_6_33_3.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04146014315553392</v>
+        <v>0.01609679208634895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9585398568444661</v>
+        <v>0.983903207913651</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9585398568444661</v>
+        <v>0.983903207913651</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1405,38 +1342,38 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_44.fasta</t>
+          <t>label_20287_6_33_30.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7021469704413321</v>
+        <v>0.02011236448287101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2978530295586678</v>
+        <v>0.979887635517129</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7021469704413321</v>
+        <v>0.979887635517129</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_52.fasta</t>
+          <t>label_20287_6_33_42.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1047919587429311</v>
+        <v>0.03117647850671001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8952080412570689</v>
+        <v>0.96882352149329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8952080412570689</v>
+        <v>0.96882352149329</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1447,17 +1384,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_55.fasta</t>
+          <t>label_20287_6_33_46.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06732773502821698</v>
+        <v>0.03330513571585736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.932672264971783</v>
+        <v>0.9666948642841428</v>
       </c>
       <c r="D20" t="n">
-        <v>0.932672264971783</v>
+        <v>0.9666948642841428</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1468,17 +1405,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_56.fasta</t>
+          <t>label_20287_6_33_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1833399600242287</v>
+        <v>0.007717867635685604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8166600399757713</v>
+        <v>0.9922821323643144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8166600399757713</v>
+        <v>0.9922821323643144</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1489,17 +1426,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_58.fasta</t>
+          <t>label_20287_6_33_53.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06208174731614169</v>
+        <v>0.05909403172559558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9379182526838584</v>
+        <v>0.9409059682744044</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9379182526838584</v>
+        <v>0.9409059682744044</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1510,17 +1447,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_13.fasta</t>
+          <t>label_20287_6_33_57.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009185391779113261</v>
+        <v>0.08938762013229951</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9908146082208867</v>
+        <v>0.9106123798677005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9908146082208867</v>
+        <v>0.9106123798677005</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1531,17 +1468,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_15.fasta</t>
+          <t>label_20287_6_33_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02369738591309833</v>
+        <v>0.01828308407232881</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9763026140869017</v>
+        <v>0.9817169159276712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9763026140869017</v>
+        <v>0.9817169159276712</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1552,17 +1489,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_16.fasta</t>
+          <t>label_20287_6_33_10.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00858581998329</v>
+        <v>0.02190566970234509</v>
       </c>
       <c r="C25" t="n">
-        <v>0.99141418001671</v>
+        <v>0.9780943302976549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99141418001671</v>
+        <v>0.9780943302976549</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1573,17 +1510,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_19.fasta</t>
+          <t>label_20287_6_33_14.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0101410133260792</v>
+        <v>0.01541258834006765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9898589866739208</v>
+        <v>0.9845874116599324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9898589866739208</v>
+        <v>0.9845874116599324</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1594,17 +1531,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_25.fasta</t>
+          <t>label_20287_6_33_18.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006757040458707064</v>
+        <v>0.01165224575044732</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9932429595412929</v>
+        <v>0.9883477542495527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9932429595412929</v>
+        <v>0.9883477542495527</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1615,17 +1552,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_26.fasta</t>
+          <t>label_20287_6_33_2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01248984982704249</v>
+        <v>0.02076099873256554</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9875101501729575</v>
+        <v>0.9792390012674345</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9875101501729575</v>
+        <v>0.9792390012674345</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1636,17 +1573,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_3.fasta</t>
+          <t>label_20287_6_33_21.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01609679208634895</v>
+        <v>0.05063783933477128</v>
       </c>
       <c r="C29" t="n">
-        <v>0.983903207913651</v>
+        <v>0.9493621606652287</v>
       </c>
       <c r="D29" t="n">
-        <v>0.983903207913651</v>
+        <v>0.9493621606652287</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1657,17 +1594,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_30.fasta</t>
+          <t>label_20287_6_33_27.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02011236448287101</v>
+        <v>0.0234771854664465</v>
       </c>
       <c r="C30" t="n">
-        <v>0.979887635517129</v>
+        <v>0.9765228145335535</v>
       </c>
       <c r="D30" t="n">
-        <v>0.979887635517129</v>
+        <v>0.9765228145335535</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1678,17 +1615,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_42.fasta</t>
+          <t>label_20287_6_33_34.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03117647850671001</v>
+        <v>0.02306566060005722</v>
       </c>
       <c r="C31" t="n">
-        <v>0.96882352149329</v>
+        <v>0.9769343393999428</v>
       </c>
       <c r="D31" t="n">
-        <v>0.96882352149329</v>
+        <v>0.9769343393999428</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1699,17 +1636,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_46.fasta</t>
+          <t>label_20287_6_33_35.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03330513571585736</v>
+        <v>0.02126857239534097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9666948642841428</v>
+        <v>0.978731427604659</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9666948642841428</v>
+        <v>0.978731427604659</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1720,17 +1657,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_5.fasta</t>
+          <t>label_20287_6_33_39.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007717867635685604</v>
+        <v>0.04087549534938184</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9922821323643144</v>
+        <v>0.9591245046506182</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9922821323643144</v>
+        <v>0.9591245046506182</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1741,17 +1678,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_53.fasta</t>
+          <t>label_20287_6_33_51.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05909403172559558</v>
+        <v>0.04983781103212814</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9409059682744044</v>
+        <v>0.9501621889678719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9409059682744044</v>
+        <v>0.9501621889678719</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1762,17 +1699,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_57.fasta</t>
+          <t>label_20287_6_33_7.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08938762013229951</v>
+        <v>0.02260059817352867</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9106123798677005</v>
+        <v>0.9773994018264713</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9106123798677005</v>
+        <v>0.9773994018264713</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1783,17 +1720,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_1.fasta</t>
+          <t>label_20287_6_33_9.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01828308407232881</v>
+        <v>0.02861510787016841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9817169159276712</v>
+        <v>0.9713848921298316</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9817169159276712</v>
+        <v>0.9713848921298316</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1804,17 +1741,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_10.fasta</t>
+          <t>label_20287_6_33_12.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02190566970234509</v>
+        <v>0.007284078424007245</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9780943302976549</v>
+        <v>0.9927159215759928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9780943302976549</v>
+        <v>0.9927159215759928</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1825,17 +1762,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_14.fasta</t>
+          <t>label_20287_6_33_17.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01541258834006765</v>
+        <v>0.08369600102314213</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9845874116599324</v>
+        <v>0.9163039989768579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9845874116599324</v>
+        <v>0.9163039989768579</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1846,17 +1783,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_18.fasta</t>
+          <t>label_20287_6_33_20.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01165224575044732</v>
+        <v>0.00428002817510309</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9883477542495527</v>
+        <v>0.9957199718248969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9883477542495527</v>
+        <v>0.9957199718248969</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1867,17 +1804,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_2.fasta</t>
+          <t>label_20287_6_33_23.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02076099873256554</v>
+        <v>0.1431272565876001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9792390012674345</v>
+        <v>0.8568727434123999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9792390012674345</v>
+        <v>0.8568727434123999</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1888,17 +1825,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_21.fasta</t>
+          <t>label_20287_6_33_24.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05063783933477128</v>
+        <v>0.009957154000836854</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9493621606652287</v>
+        <v>0.9900428459991631</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9493621606652287</v>
+        <v>0.9900428459991631</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1909,17 +1846,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_27.fasta</t>
+          <t>label_20287_6_33_32.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0234771854664465</v>
+        <v>0.003532417465284099</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9765228145335535</v>
+        <v>0.9964675825347159</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9765228145335535</v>
+        <v>0.9964675825347159</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1930,17 +1867,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_34.fasta</t>
+          <t>label_20287_6_33_37.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02306566060005722</v>
+        <v>0.01832198525449313</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9769343393999428</v>
+        <v>0.9816780147455069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9769343393999428</v>
+        <v>0.9816780147455069</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1951,17 +1888,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_35.fasta</t>
+          <t>label_20287_6_33_4.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02126857239534097</v>
+        <v>0.001307132917632625</v>
       </c>
       <c r="C44" t="n">
-        <v>0.978731427604659</v>
+        <v>0.9986928670823674</v>
       </c>
       <c r="D44" t="n">
-        <v>0.978731427604659</v>
+        <v>0.9986928670823674</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1972,17 +1909,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_39.fasta</t>
+          <t>label_20287_6_33_41.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04087549534938184</v>
+        <v>0.03318604629972999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9591245046506182</v>
+        <v>0.96681395370027</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9591245046506182</v>
+        <v>0.96681395370027</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1993,17 +1930,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_51.fasta</t>
+          <t>label_20287_6_33_47.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04983781103212814</v>
+        <v>0.03981783628060231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9501621889678719</v>
+        <v>0.9601821637193977</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9501621889678719</v>
+        <v>0.9601821637193977</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2014,17 +1951,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_7.fasta</t>
+          <t>label_20287_6_33_48.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02260059817352867</v>
+        <v>0.02732968897960186</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9773994018264713</v>
+        <v>0.9726703110203981</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9773994018264713</v>
+        <v>0.9726703110203981</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2035,17 +1972,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_9.fasta</t>
+          <t>label_20287_6_33_49.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02861510787016841</v>
+        <v>0.04078903908809961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9713848921298316</v>
+        <v>0.9592109609119004</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9713848921298316</v>
+        <v>0.9592109609119004</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2056,17 +1993,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_12.fasta</t>
+          <t>label_20287_6_33_59.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007284078424007245</v>
+        <v>0.2596749388943759</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9927159215759928</v>
+        <v>0.7403250611056241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9927159215759928</v>
+        <v>0.7403250611056241</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2077,17 +2014,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_17.fasta</t>
+          <t>label_20287_6_33_11.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08369600102314213</v>
+        <v>0.005675686805284519</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9163039989768579</v>
+        <v>0.9943243131947155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9163039989768579</v>
+        <v>0.9943243131947155</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2098,17 +2035,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_20.fasta</t>
+          <t>label_20287_6_33_29.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.00428002817510309</v>
+        <v>0.009138504692917548</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9957199718248969</v>
+        <v>0.9908614953070825</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9957199718248969</v>
+        <v>0.9908614953070825</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2119,17 +2056,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_23.fasta</t>
+          <t>label_20287_6_33_33.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1431272565876001</v>
+        <v>0.009312683402347366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8568727434123999</v>
+        <v>0.9906873165976526</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8568727434123999</v>
+        <v>0.9906873165976526</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2140,17 +2077,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_24.fasta</t>
+          <t>label_20287_6_33_40.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.009957154000836854</v>
+        <v>0.004714834712990612</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9900428459991631</v>
+        <v>0.9952851652870094</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9900428459991631</v>
+        <v>0.9952851652870094</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2161,17 +2098,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_32.fasta</t>
+          <t>label_20287_6_33_45.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.003532417465284099</v>
+        <v>0.006072751183725634</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9964675825347159</v>
+        <v>0.9939272488162744</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9964675825347159</v>
+        <v>0.9939272488162744</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2182,17 +2119,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_37.fasta</t>
+          <t>label_20287_6_33_50.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01832198525449313</v>
+        <v>0.353802850256192</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9816780147455069</v>
+        <v>0.646197149743808</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9816780147455069</v>
+        <v>0.646197149743808</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2203,17 +2140,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_4.fasta</t>
+          <t>label_20287_6_33_54.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001307132917632625</v>
+        <v>0.008211334440076268</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9986928670823674</v>
+        <v>0.9917886655599237</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9986928670823674</v>
+        <v>0.9917886655599237</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2224,17 +2161,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_41.fasta</t>
+          <t>label_20287_6_33_6.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03318604629972999</v>
+        <v>0.008430559762571677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.96681395370027</v>
+        <v>0.9915694402374283</v>
       </c>
       <c r="D57" t="n">
-        <v>0.96681395370027</v>
+        <v>0.9915694402374283</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2245,271 +2182,19 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_33_47.fasta</t>
+          <t>label_20287_6_33_8.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03981783628060231</v>
+        <v>0.01216994028299978</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9601821637193977</v>
+        <v>0.9878300597170002</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9601821637193977</v>
+        <v>0.9878300597170002</v>
       </c>
       <c r="E58" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_48.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.02732968897960186</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9726703110203981</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9726703110203981</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_49.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.04078903908809961</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.9592109609119004</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9592109609119004</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_59.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.2596749388943759</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.7403250611056241</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.7403250611056241</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_11.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.005675686805284519</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.9943243131947155</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9943243131947155</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_29.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.009138504692917548</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.9908614953070825</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9908614953070825</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_33.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.009312683402347366</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.9906873165976526</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9906873165976526</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_40.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.004714834712990612</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.9952851652870094</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9952851652870094</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_45.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.006072751183725634</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.9939272488162744</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9939272488162744</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_50.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.353802850256192</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.646197149743808</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.646197149743808</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_54.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.008211334440076268</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.9917886655599237</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9917886655599237</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_6.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.008430559762571677</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.9915694402374283</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9915694402374283</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella sp900066545</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_20287_6_33_8.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.01216994028299978</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9878300597170002</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9878300597170002</v>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>s__Schaedlerella sp900066545</t>
         </is>
